--- a/day9/12月份衣服销售数据.xlsx
+++ b/day9/12月份衣服销售数据.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="12月份各种服饰销售情况" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -17,32 +17,65 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服装名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格/件</t>
+  </si>
+  <si>
+    <t>库存数量</t>
+  </si>
+  <si>
+    <t>销售量/每日</t>
   </si>
   <si>
     <t>1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽绒服</t>
+  </si>
+  <si>
+    <t>12月份销售总金额</t>
   </si>
   <si>
     <t>2号</t>
   </si>
   <si>
+    <t>牛仔裤</t>
+  </si>
+  <si>
+    <t>每件衣服的销售占比（件数）</t>
+  </si>
+  <si>
     <t>3号</t>
   </si>
   <si>
+    <t>风衣</t>
+  </si>
+  <si>
+    <t>每件衣服的销售额占比</t>
+  </si>
+  <si>
     <t>4号</t>
   </si>
   <si>
+    <t>皮草</t>
+  </si>
+  <si>
     <t>5号</t>
   </si>
   <si>
+    <t>T血</t>
+  </si>
+  <si>
     <t>6号</t>
   </si>
   <si>
+    <t>衬衫</t>
+  </si>
+  <si>
     <t>7号</t>
   </si>
   <si>
@@ -113,77 +146,179 @@
   </si>
   <si>
     <t>30号</t>
-  </si>
-  <si>
-    <t>羽绒服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛仔裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售量/每日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格/件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衬衫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月份销售总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每件衣服的销售占比（件数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每件衣服的销售额占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +331,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -207,22 +528,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -236,17 +799,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -295,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,30 +1140,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.4259259259259" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="30.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,21 +1171,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>253.6</v>
@@ -590,15 +1197,15 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>86.3</v>
@@ -610,15 +1217,15 @@
         <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>96.8</v>
@@ -630,15 +1237,15 @@
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>135.9</v>
@@ -650,12 +1257,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>65.8</v>
@@ -667,12 +1274,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>49.3</v>
@@ -684,12 +1291,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <v>86.3</v>
@@ -701,12 +1308,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>253.6</v>
@@ -718,12 +1325,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>86.3</v>
@@ -735,12 +1342,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
         <v>253.6</v>
@@ -752,12 +1359,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
         <v>86.3</v>
@@ -769,12 +1376,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>135.9</v>
@@ -786,12 +1393,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>65.8</v>
@@ -803,12 +1410,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>96.8</v>
@@ -820,12 +1427,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3">
         <v>86.3</v>
@@ -837,12 +1444,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C17" s="3">
         <v>65.8</v>
@@ -854,12 +1461,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
         <v>253.6</v>
@@ -871,12 +1478,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>96.8</v>
@@ -888,12 +1495,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>65.8</v>
@@ -905,12 +1512,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3">
         <v>86.3</v>
@@ -922,12 +1529,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3">
         <v>135.9</v>
@@ -939,12 +1546,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3">
         <v>96.8</v>
@@ -956,12 +1563,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3">
         <v>65.8</v>
@@ -973,12 +1580,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3">
         <v>86.3</v>
@@ -990,12 +1597,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3">
         <v>65.8</v>
@@ -1007,12 +1614,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3">
         <v>96.8</v>
@@ -1024,12 +1631,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3">
         <v>135.9</v>
@@ -1041,12 +1648,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3">
         <v>253.6</v>
@@ -1058,12 +1665,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3">
         <v>65.8</v>
@@ -1075,12 +1682,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3">
         <v>96.8</v>
@@ -1093,8 +1700,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>